--- a/src/test/resources/testdata/Suite.xlsx
+++ b/src/test/resources/testdata/Suite.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\seleniumworkspaces\LiveProjects\TestDataProject\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sami/IdeaProjects/TestDataProject/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17205" windowHeight="5370"/>
+    <workbookView xWindow="54400" yWindow="460" windowWidth="12800" windowHeight="21060"/>
   </bookViews>
   <sheets>
     <sheet name="Suite" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -45,10 +48,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -71,13 +90,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -356,18 +380,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -375,7 +399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -383,15 +407,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>